--- a/UC-Serafe/UPI-Dataset-fiction/v0.1/UPI_Personnes_fiction.xlsx
+++ b/UC-Serafe/UPI-Dataset-fiction/v0.1/UPI_Personnes_fiction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/fabian_cretton_hes-so_ch/Documents/Fabian/BK 2024/UC UPI/Dataset-fiction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/fabian_cretton_hes-so_ch/Documents/Fabian/BK 2024/UC Serafe/UPI-Dataset-fiction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_AD4DB114E441178AC67DF4D46695F050693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62F3EFA7-5A55-440D-99EB-EB6540B7B609}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4DB114E441178AC67DF4D46695F050693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE380D82-DE6B-4F62-BDCD-977535EB341A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,12 +156,6 @@
     <t>Disney</t>
   </si>
   <si>
-    <t>Tataroğlu</t>
-  </si>
-  <si>
-    <t>İnci</t>
-  </si>
-  <si>
     <t>Caldwell</t>
   </si>
   <si>
@@ -287,6 +292,12 @@
   </si>
   <si>
     <t>Q101112187</t>
+  </si>
+  <si>
+    <t>Tataroglu</t>
+  </si>
+  <si>
+    <t>Inci</t>
   </si>
 </sst>
 </file>
@@ -294,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -351,7 +362,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -368,10 +379,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,18 +647,18 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -674,9 +681,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -697,9 +704,9 @@
         <v>7565626146561</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -720,9 +727,9 @@
         <v>7563797564085</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -743,9 +750,9 @@
         <v>7566939230183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
@@ -766,9 +773,9 @@
         <v>7566422590732</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
@@ -789,9 +796,9 @@
         <v>7569468062614</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>38</v>
@@ -812,9 +819,9 @@
         <v>7565691946349</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
@@ -835,9 +842,9 @@
         <v>7564934397498</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
@@ -858,9 +865,9 @@
         <v>7563038909224</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -881,9 +888,9 @@
         <v>7561230860077</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
@@ -904,18 +911,18 @@
         <v>7562378067595</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -927,18 +934,18 @@
         <v>7562186711192</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -950,18 +957,18 @@
         <v>7564098604807</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -973,18 +980,18 @@
         <v>7568849389654</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -996,18 +1003,18 @@
         <v>7565949876756</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -1019,18 +1026,18 @@
         <v>7565554356834</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
@@ -1042,18 +1049,18 @@
         <v>7563100078216</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
@@ -1065,18 +1072,18 @@
         <v>7563429487423</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
@@ -1088,18 +1095,18 @@
         <v>7564386875681</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
@@ -1111,18 +1118,18 @@
         <v>7561256952909</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>33</v>
@@ -1134,18 +1141,18 @@
         <v>7562907209281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>33</v>
@@ -1157,18 +1164,18 @@
         <v>7560605260238</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>33</v>
@@ -1180,18 +1187,18 @@
         <v>7562629102143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
@@ -1203,18 +1210,18 @@
         <v>7562966486647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>33</v>
@@ -1244,9 +1251,9 @@
       <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1268,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1283,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1298,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1313,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1328,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1343,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1358,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1373,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
